--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H2">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I2">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J2">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>1571.528173100076</v>
+        <v>2198.845627625336</v>
       </c>
       <c r="R2">
-        <v>14143.75355790068</v>
+        <v>19789.61064862803</v>
       </c>
       <c r="S2">
-        <v>0.2037509456163232</v>
+        <v>0.2502538153082011</v>
       </c>
       <c r="T2">
-        <v>0.2037509456163231</v>
+        <v>0.2502538153082011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H3">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I3">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J3">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>1516.847299216254</v>
+        <v>1876.76117928312</v>
       </c>
       <c r="R3">
-        <v>13651.62569294629</v>
+        <v>16890.85061354808</v>
       </c>
       <c r="S3">
-        <v>0.1966614896640461</v>
+        <v>0.213596916326109</v>
       </c>
       <c r="T3">
-        <v>0.196661489664046</v>
+        <v>0.2135969163261089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H4">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I4">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J4">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>306.9728943641106</v>
+        <v>559.1225928915807</v>
       </c>
       <c r="R4">
-        <v>2762.756049276996</v>
+        <v>5032.103336024226</v>
       </c>
       <c r="S4">
-        <v>0.03979948853343546</v>
+        <v>0.06363455457636778</v>
       </c>
       <c r="T4">
-        <v>0.03979948853343544</v>
+        <v>0.06363455457636777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H5">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I5">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J5">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>971.0726183989622</v>
+        <v>1114.442906302366</v>
       </c>
       <c r="R5">
-        <v>8739.653565590659</v>
+        <v>10029.98615672129</v>
       </c>
       <c r="S5">
-        <v>0.1259009972889031</v>
+        <v>0.1268363662011693</v>
       </c>
       <c r="T5">
-        <v>0.1259009972889031</v>
+        <v>0.1268363662011693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>529.5486350631555</v>
+        <v>598.8406502773878</v>
       </c>
       <c r="R6">
-        <v>4765.937715568401</v>
+        <v>5389.565852496491</v>
       </c>
       <c r="S6">
-        <v>0.06865676161001304</v>
+        <v>0.06815492438885103</v>
       </c>
       <c r="T6">
-        <v>0.06865676161001301</v>
+        <v>0.06815492438885101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>511.1231415690633</v>
@@ -883,10 +883,10 @@
         <v>4600.108274121571</v>
       </c>
       <c r="S7">
-        <v>0.06626786920125464</v>
+        <v>0.05817166728894473</v>
       </c>
       <c r="T7">
-        <v>0.06626786920125463</v>
+        <v>0.0581716672889447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>103.4388565183866</v>
+        <v>152.2732350581478</v>
       </c>
       <c r="R8">
-        <v>930.9497086654799</v>
+        <v>1370.45911552333</v>
       </c>
       <c r="S8">
-        <v>0.01341100031793725</v>
+        <v>0.01733043810073105</v>
       </c>
       <c r="T8">
-        <v>0.01341100031793725</v>
+        <v>0.01733043810073105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>327.21664709706</v>
+        <v>303.5109451625611</v>
       </c>
       <c r="R9">
-        <v>2944.94982387354</v>
+        <v>2731.59850646305</v>
       </c>
       <c r="S9">
-        <v>0.04242412093440916</v>
+        <v>0.03454302160209273</v>
       </c>
       <c r="T9">
-        <v>0.04242412093440915</v>
+        <v>0.03454302160209272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H10">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>106.56097444468</v>
+        <v>103.3934241348184</v>
       </c>
       <c r="R10">
-        <v>959.0487700021201</v>
+        <v>930.5408172133662</v>
       </c>
       <c r="S10">
-        <v>0.01381578751214521</v>
+        <v>0.01176735580817507</v>
       </c>
       <c r="T10">
-        <v>0.01381578751214521</v>
+        <v>0.01176735580817507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H11">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>102.853215777489</v>
+        <v>88.24847100291534</v>
       </c>
       <c r="R11">
-        <v>925.678941997401</v>
+        <v>794.236239026238</v>
       </c>
       <c r="S11">
-        <v>0.01333507113207101</v>
+        <v>0.01004368669002248</v>
       </c>
       <c r="T11">
-        <v>0.01333507113207101</v>
+        <v>0.01004368669002248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H12">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>20.814982073796</v>
+        <v>26.29088584660244</v>
       </c>
       <c r="R12">
-        <v>187.334838664164</v>
+        <v>236.617972619422</v>
       </c>
       <c r="S12">
-        <v>0.00269869312756678</v>
+        <v>0.00299220391294596</v>
       </c>
       <c r="T12">
-        <v>0.002698693127566779</v>
+        <v>0.002992203912945959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H13">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>65.84574571705801</v>
+        <v>52.40298210920778</v>
       </c>
       <c r="R13">
-        <v>592.6117114535222</v>
+        <v>471.62683898287</v>
       </c>
       <c r="S13">
-        <v>0.008536998053427954</v>
+        <v>0.005964059523596155</v>
       </c>
       <c r="T13">
-        <v>0.008536998053427952</v>
+        <v>0.005964059523596152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H14">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I14">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J14">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>568.3599283063022</v>
+        <v>459.4168053305571</v>
       </c>
       <c r="R14">
-        <v>5115.23935475672</v>
+        <v>4134.751247975014</v>
       </c>
       <c r="S14">
-        <v>0.07368870302489977</v>
+        <v>0.05228689404396288</v>
       </c>
       <c r="T14">
-        <v>0.07368870302489974</v>
+        <v>0.05228689404396286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H15">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I15">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J15">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>548.5840069500673</v>
+        <v>392.121945498201</v>
       </c>
       <c r="R15">
-        <v>4937.256062550606</v>
+        <v>3529.097509483809</v>
       </c>
       <c r="S15">
-        <v>0.0711247256519594</v>
+        <v>0.04462796828214617</v>
       </c>
       <c r="T15">
-        <v>0.07112472565195938</v>
+        <v>0.04462796828214615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H16">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I16">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J16">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>111.0200219246426</v>
+        <v>116.820531731369</v>
       </c>
       <c r="R16">
-        <v>999.1801973217838</v>
+        <v>1051.384785582321</v>
       </c>
       <c r="S16">
-        <v>0.01439390959493183</v>
+        <v>0.01329551443030598</v>
       </c>
       <c r="T16">
-        <v>0.01439390959493183</v>
+        <v>0.01329551443030597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H17">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I17">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J17">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>351.198771501948</v>
+        <v>232.846632480365</v>
       </c>
       <c r="R17">
-        <v>3160.788943517532</v>
+        <v>2095.619692323285</v>
       </c>
       <c r="S17">
-        <v>0.04553343873667618</v>
+        <v>0.02650061351637854</v>
       </c>
       <c r="T17">
-        <v>0.04553343873667617</v>
+        <v>0.02650061351637853</v>
       </c>
     </row>
   </sheetData>
